--- a/excel_files/safeguarding chinese.xlsx
+++ b/excel_files/safeguarding chinese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-china-rural-migrant\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE5D17-11F0-4CC1-ABD0-39EDB02AA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB727D-8A01-4107-AB26-D19618A4A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="940">
   <si>
     <t>Section 1</t>
   </si>
@@ -2873,13 +2873,16 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>余北学</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2935,6 +2938,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3139,7 +3149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3173,6 +3183,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3192,9 +3205,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3433,19 +3444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3465,20 +3476,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3500,20 +3511,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3532,19 +3543,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11382,19 +11393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>915</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -11414,20 +11425,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -11449,20 +11460,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -11481,19 +11492,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -13370,19 +13381,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -13402,20 +13413,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -13437,20 +13448,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -13469,19 +13480,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -15336,7 +15347,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15352,19 +15363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -15384,20 +15395,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -15419,20 +15430,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -15451,19 +15462,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -15485,10 +15496,12 @@
       <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>937</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>939</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -15518,10 +15531,12 @@
       <c r="A6" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>937</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>939</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -15637,7 +15652,7 @@
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -17328,19 +17343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -17360,20 +17375,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -17395,20 +17410,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17427,19 +17442,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -17461,7 +17476,7 @@
       <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>938</v>
       </c>
       <c r="C5" s="5"/>
@@ -17494,7 +17509,7 @@
       <c r="A6" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>938</v>
       </c>
       <c r="C6" s="26"/>
@@ -19271,12 +19286,12 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -19304,19 +19319,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -19336,20 +19351,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -19371,20 +19386,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -19403,19 +19418,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -21960,19 +21975,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -21992,20 +22007,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -22027,20 +22042,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -22059,19 +22074,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -24148,19 +24163,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -24180,20 +24195,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -24215,20 +24230,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -24247,19 +24262,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -28162,19 +28177,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -28194,20 +28209,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -28229,20 +28244,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -28261,19 +28276,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -30158,19 +30173,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30190,20 +30205,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -30225,20 +30240,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -30257,19 +30272,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -32146,19 +32161,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -32178,20 +32193,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -32213,20 +32228,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -32245,19 +32260,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -34136,19 +34151,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -34168,20 +34183,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -34203,20 +34218,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -34235,19 +34250,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -36128,19 +36143,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -36160,20 +36175,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -36195,20 +36210,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -36227,19 +36242,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>

--- a/excel_files/safeguarding chinese.xlsx
+++ b/excel_files/safeguarding chinese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-china-rural-migrant\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB727D-8A01-4107-AB26-D19618A4A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACFF17-ACFD-4E3B-8B17-A02CF97DFECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="pause" sheetId="15" r:id="rId10"/>
     <sheet name="stop" sheetId="16" r:id="rId11"/>
     <sheet name="start" sheetId="17" r:id="rId12"/>
-    <sheet name="ID" sheetId="18" r:id="rId13"/>
+    <sheet name="id" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -3186,6 +3186,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3205,7 +3206,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3444,19 +3444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3476,20 +3476,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3511,20 +3511,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3543,19 +3543,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11393,19 +11393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>915</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -11425,20 +11425,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -11460,20 +11460,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -11492,19 +11492,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -13381,19 +13381,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -13413,20 +13413,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -13448,20 +13448,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -13480,19 +13480,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -15346,7 +15346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18865E21-9A40-4498-BC9F-131908321A32}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -15363,19 +15363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>932</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -15395,20 +15395,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -15430,20 +15430,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -15462,19 +15462,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -15652,7 +15652,7 @@
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -17326,8 +17326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7850F20-3331-4C41-839D-971DF63ACFD9}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -17343,19 +17343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>932</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -17375,20 +17375,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -17410,20 +17410,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17442,19 +17442,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -19319,19 +19319,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -19351,20 +19351,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -19386,20 +19386,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -19418,19 +19418,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -21975,19 +21975,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -22007,20 +22007,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -22042,20 +22042,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -22074,19 +22074,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -24163,19 +24163,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -24195,20 +24195,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -24230,20 +24230,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -24262,19 +24262,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -28177,19 +28177,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -28209,20 +28209,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -28244,20 +28244,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -28276,19 +28276,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -30173,19 +30173,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -30205,20 +30205,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -30240,20 +30240,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -30272,19 +30272,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -32161,19 +32161,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -32193,20 +32193,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -32228,20 +32228,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -32260,19 +32260,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -34151,19 +34151,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -34183,20 +34183,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -34218,20 +34218,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -34250,19 +34250,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -36143,19 +36143,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -36175,20 +36175,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -36210,20 +36210,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -36242,19 +36242,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
